--- a/report/graphs/data.xlsx
+++ b/report/graphs/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>time</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>store 3</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -2841,6 +2844,2327 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Charge sur les stores (f = 0.95)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>no_balancing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>store 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>no_balancing!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>no_balancing!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.009685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.183159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.74094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.992651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.48425</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.180931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.609943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.416718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.69056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.110874</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.821358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.99211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.405285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.340008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.46543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.7551</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.43459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.846466</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.954144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.490374</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.930525</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.362488</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.475172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.14646</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.368778</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.027348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.88527</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.28237</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.55353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93.15423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.41402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.222893</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.413696</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>69.75156</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.85833</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.94231</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.8665</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.80613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.45724</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.830124</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62.939026</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.40246</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>80.77775</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.31224</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.618017</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.76413</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.24702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.369049</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.410545</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.738432</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.41757</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.592634</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.5624</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.829105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42.874504</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.530193</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.884722</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34.26587</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.495448</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.307362</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.719716</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.462414</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29.379396</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.930237</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>108.1867</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.222846</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.685785</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27.830956</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.771152000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.684488</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.93474</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24.209414</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.480732</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.262</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.723904</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.992436</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.583633</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34.524002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.407581</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.466785</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.216795</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>69.15398399999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20.187746</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32.862144</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.219166</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>72.00139</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21.570854</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.758137</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32.250446</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24.680843</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.2171307</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.924726</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>63.392204</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89.89743</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38.12142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>no_balancing!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>store 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>no_balancing!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>no_balancing!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8527508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8527508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6946087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.459879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.186886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.186886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.186886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.096165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.096165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.0732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.119541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.995615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.995615</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.533539</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.676535</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.878075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.042795</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.158625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.64281</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.64281</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.64281</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.497131</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.672276</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.672276</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.938662</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.31214</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.144339</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.845753</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.882122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.966118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.36781</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.200832</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52.287678</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.311096</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.122185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.13549</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>48.577538</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.803726</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.76354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.4791</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.31585</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>68.25404</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65.14134</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>63.10788</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.55462</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67.32689000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.49877</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62.02976</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.707417</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38.553783</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.494072</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.413105</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.160328</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.111263</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.891829</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.200485</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.16411</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.930483</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.19226</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.256977</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.134031</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.656153</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.461446</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.158472</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.978648</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.408164</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.030008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.690622</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.287551</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.459745</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23.415714</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.624208</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>24.039639</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.609177</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.455929</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>24.235384</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.266357</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38.869038</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32.6154</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.726484</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.477972</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>23.91482</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19.032606</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19.032606</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.41616</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25.770054</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.356929</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.789936</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.501987</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40.997375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>39.147507</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25.187222</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.53826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.53826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>no_balancing!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>store 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>no_balancing!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>no_balancing!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.248192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>avg</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>no_balancing!$G$2:$G$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75150016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.457412619999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.292107419999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.551789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.0730422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.3247856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.5978844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.6391072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.78004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.714209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.7377956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.1368702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.061233</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.3754432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.3827256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.6364092</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.2036096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.2109956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.8329712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.8558076</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.1630536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.6415372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.1528244</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.0354596</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.267727</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.7475422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.5875752</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.2140856</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.3211144</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.2696814</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.8864506</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.407638</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.1570584</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.7097644</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.1619032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.20427199999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.1246726</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.6675026</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.6936334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.10748640000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.2153054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.3462608</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.74092900000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42.5608176</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.600714</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.055635</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40.103379</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40.459199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41.8451578</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.1970808</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.985567</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.0124724</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.62273320000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>27.9785984</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.410115</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.5807462</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.4236536</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.7609642</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.5026694</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.279789</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.8394544</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.741677</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24.5302392</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.1338712</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.3419948</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.4411788</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.017965</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.6472816</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.648638</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.1069246</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.598392</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.09398160000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.4075088</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.241969</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.2967287</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.1199142</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.0001454</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>18.2612838</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.7032188</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>19.9184072</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22.4798912</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.1795034</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30.4471318</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19.821116</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.1622028</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>19.5078444</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28.3883498</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.8299048</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>21.8401528</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.747592</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20.5009046</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.51511654</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22.1960632</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.2488248</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>32.2701732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="583918312"/>
+        <c:axId val="583636040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="583918312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="583636040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583636040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="583918312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2855,6 +5179,41 @@
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4954,15 +7313,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C101"/>
+      <selection activeCell="B2" sqref="B2:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4981,8 +7340,11 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5001,8 +7363,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>SUM(B2:F2)/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -5021,8 +7387,12 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">SUM(B3:F3)/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -5030,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.2500001999999999</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5039,1910 +7409,2294 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.97250020000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>28.32292</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.0073447</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.1000003</v>
       </c>
       <c r="E5">
-        <v>0.55000013000000003</v>
+        <v>2.6575004999999998</v>
       </c>
       <c r="F5">
-        <v>3.5251817999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.75150015999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>28.664425000000001</v>
+        <v>9.0096849999999993</v>
       </c>
       <c r="C6">
-        <v>5.0073447</v>
+        <v>1.4000003000000001</v>
       </c>
       <c r="D6">
-        <v>5.5900015999999999</v>
+        <v>3.8527507999999999</v>
       </c>
       <c r="E6">
-        <v>0.55000013000000003</v>
+        <v>8.0246270000000006</v>
       </c>
       <c r="F6">
-        <v>3.5251817999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.4574126199999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>30.320260999999999</v>
+        <v>23.183159</v>
       </c>
       <c r="C7">
-        <v>5.3069777</v>
+        <v>1.4000003000000001</v>
       </c>
       <c r="D7">
-        <v>5.5900015999999999</v>
+        <v>3.8527507999999999</v>
       </c>
       <c r="E7">
-        <v>1.5688753</v>
+        <v>8.0246270000000006</v>
       </c>
       <c r="F7">
-        <v>5.2489233000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.2921074199999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>27.491014</v>
+        <v>29.740939999999998</v>
       </c>
       <c r="C8">
-        <v>7.7920484999999999</v>
+        <v>1.4000003000000001</v>
       </c>
       <c r="D8">
-        <v>9.8105030000000006</v>
+        <v>7.6946086999999999</v>
       </c>
       <c r="E8">
-        <v>4.4404325</v>
+        <v>8.9233960000000003</v>
       </c>
       <c r="F8">
-        <v>6.5546530000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.5517889999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>34.573914000000002</v>
+        <v>30.992650999999999</v>
       </c>
       <c r="C9">
-        <v>8.0524459999999998</v>
+        <v>16.485455000000002</v>
       </c>
       <c r="D9">
-        <v>13.12398</v>
+        <v>8.4598790000000008</v>
       </c>
       <c r="E9">
-        <v>4.7684110000000004</v>
+        <v>9.4272259999999992</v>
       </c>
       <c r="F9">
-        <v>10.326921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>13.0730422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>33.538110000000003</v>
+        <v>30.484249999999999</v>
       </c>
       <c r="C10">
-        <v>9.4469659999999998</v>
+        <v>16.443123</v>
       </c>
       <c r="D10">
-        <v>13.26778</v>
+        <v>9.1868859999999994</v>
       </c>
       <c r="E10">
-        <v>6.5209913000000004</v>
+        <v>10.509669000000001</v>
       </c>
       <c r="F10">
-        <v>10.310575500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>13.324785600000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>33.042361999999997</v>
+        <v>30.180931000000001</v>
       </c>
       <c r="C11">
-        <v>13.983784999999999</v>
+        <v>19.787417999999999</v>
       </c>
       <c r="D11">
-        <v>13.304391000000001</v>
+        <v>9.1868859999999994</v>
       </c>
       <c r="E11">
-        <v>6.5676940000000004</v>
+        <v>13.834187</v>
       </c>
       <c r="F11">
-        <v>11.295047</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>14.597884400000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>24.315445</v>
+        <v>32.609943000000001</v>
       </c>
       <c r="C12">
-        <v>13.734595000000001</v>
+        <v>27.168354000000001</v>
       </c>
       <c r="D12">
-        <v>15.289172000000001</v>
+        <v>9.1868859999999994</v>
       </c>
       <c r="E12">
-        <v>12.612346000000001</v>
+        <v>14.230352999999999</v>
       </c>
       <c r="F12">
-        <v>14.868779999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>16.639107199999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B13">
-        <v>35.002377000000003</v>
+        <v>42.416718000000003</v>
       </c>
       <c r="C13">
-        <v>13.397864999999999</v>
+        <v>29.059937000000001</v>
       </c>
       <c r="D13">
-        <v>15.289172000000001</v>
+        <v>12.096164999999999</v>
       </c>
       <c r="E13">
-        <v>12.612346000000001</v>
+        <v>15.32738</v>
       </c>
       <c r="F13">
-        <v>21.674075999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>19.780040000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1.2</v>
       </c>
       <c r="B14">
-        <v>29.562847000000001</v>
+        <v>33.690559999999998</v>
       </c>
       <c r="C14">
-        <v>12.548601</v>
+        <v>32.456940000000003</v>
       </c>
       <c r="D14">
-        <v>15.289172000000001</v>
+        <v>12.096164999999999</v>
       </c>
       <c r="E14">
-        <v>15.152642999999999</v>
+        <v>15.32738</v>
       </c>
       <c r="F14">
-        <v>20.940372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>18.714209000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>1.3</v>
       </c>
       <c r="B15">
-        <v>27.136949999999999</v>
+        <v>47.110874000000003</v>
       </c>
       <c r="C15">
-        <v>12.548601</v>
+        <v>32.456940000000003</v>
       </c>
       <c r="D15">
-        <v>21.641681999999999</v>
+        <v>19.0732</v>
       </c>
       <c r="E15">
-        <v>18.895012000000001</v>
+        <v>20.047964</v>
       </c>
       <c r="F15">
-        <v>22.880376999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>23.737795599999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1.4</v>
       </c>
       <c r="B16">
-        <v>22.907982000000001</v>
+        <v>51.821357999999996</v>
       </c>
       <c r="C16">
-        <v>12.304733000000001</v>
+        <v>36.695487999999997</v>
       </c>
       <c r="D16">
-        <v>19.698409999999999</v>
+        <v>22.119541000000002</v>
       </c>
       <c r="E16">
-        <v>17.882747999999999</v>
+        <v>20.047964</v>
       </c>
       <c r="F16">
-        <v>22.086359000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>26.136870199999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1.5</v>
       </c>
       <c r="B17">
-        <v>27.906856999999999</v>
+        <v>48.992109999999997</v>
       </c>
       <c r="C17">
-        <v>11.909145000000001</v>
+        <v>36.695487999999997</v>
       </c>
       <c r="D17">
-        <v>19.167076000000002</v>
+        <v>25.995615000000001</v>
       </c>
       <c r="E17">
-        <v>16.964178</v>
+        <v>18.622952000000002</v>
       </c>
       <c r="F17">
-        <v>21.362938</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>26.061232999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1.6</v>
       </c>
       <c r="B18">
-        <v>23.570833</v>
+        <v>37.405284999999999</v>
       </c>
       <c r="C18">
-        <v>11.909145000000001</v>
+        <v>35.460712000000001</v>
       </c>
       <c r="D18">
-        <v>20.741463</v>
+        <v>25.995615000000001</v>
       </c>
       <c r="E18">
-        <v>16.964178</v>
+        <v>18.015604</v>
       </c>
       <c r="F18">
-        <v>20.452047</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>23.375443199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1.7</v>
       </c>
       <c r="B19">
-        <v>20.163933</v>
+        <v>37.340007999999997</v>
       </c>
       <c r="C19">
-        <v>11.765504999999999</v>
+        <v>34.187674999999999</v>
       </c>
       <c r="D19">
-        <v>21.971588000000001</v>
+        <v>24.533539000000001</v>
       </c>
       <c r="E19">
-        <v>19.127672</v>
+        <v>25.852405999999998</v>
       </c>
       <c r="F19">
-        <v>27.629448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>24.382725600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1.8</v>
       </c>
       <c r="B20">
-        <v>18.017824000000001</v>
+        <v>49.465429999999998</v>
       </c>
       <c r="C20">
-        <v>10.895699499999999</v>
+        <v>34.187674999999999</v>
       </c>
       <c r="D20">
-        <v>20.414356000000002</v>
+        <v>23.676535000000001</v>
       </c>
       <c r="E20">
-        <v>18.421288000000001</v>
+        <v>25.852405999999998</v>
       </c>
       <c r="F20">
-        <v>26.597975000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>26.636409199999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1.9</v>
       </c>
       <c r="B21">
-        <v>18.961725000000001</v>
+        <v>40.755099999999999</v>
       </c>
       <c r="C21">
-        <v>10.37795</v>
+        <v>33.028289999999998</v>
       </c>
       <c r="D21">
-        <v>17.922702999999998</v>
+        <v>24.878074999999999</v>
       </c>
       <c r="E21">
-        <v>18.02805</v>
+        <v>27.356583000000001</v>
       </c>
       <c r="F21">
-        <v>23.312176000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>25.2036096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>13.800269999999999</v>
+        <v>35.43459</v>
       </c>
       <c r="C22">
-        <v>9.7035450000000001</v>
+        <v>36.22101</v>
       </c>
       <c r="D22">
-        <v>16.810237999999998</v>
+        <v>22.042795000000002</v>
       </c>
       <c r="E22">
-        <v>15.961261</v>
+        <v>27.356583000000001</v>
       </c>
       <c r="F22">
-        <v>22.546565999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>24.210995599999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2.1</v>
       </c>
       <c r="B23">
-        <v>18.302109000000002</v>
+        <v>31.846465999999999</v>
       </c>
       <c r="C23">
-        <v>10.154555</v>
+        <v>36.22101</v>
       </c>
       <c r="D23">
-        <v>15.75624</v>
+        <v>28.158625000000001</v>
       </c>
       <c r="E23">
-        <v>23.700911999999999</v>
+        <v>32.938755</v>
       </c>
       <c r="F23">
-        <v>30.122149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>25.832971199999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
       <c r="B24">
-        <v>90.718369999999993</v>
+        <v>30.954143999999999</v>
       </c>
       <c r="C24">
-        <v>9.0581600000000009</v>
+        <v>32.829859999999996</v>
       </c>
       <c r="D24">
-        <v>13.408823</v>
+        <v>24.642810000000001</v>
       </c>
       <c r="E24">
-        <v>38.897109999999998</v>
+        <v>30.852224</v>
       </c>
       <c r="F24">
-        <v>21.936647000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>23.855807599999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
       <c r="B25">
-        <v>27.771051</v>
+        <v>22.490373999999999</v>
       </c>
       <c r="C25">
-        <v>8.5360154999999995</v>
+        <v>32.829859999999996</v>
       </c>
       <c r="D25">
-        <v>12.973962999999999</v>
+        <v>24.642810000000001</v>
       </c>
       <c r="E25">
-        <v>38.897109999999998</v>
+        <v>30.852224</v>
       </c>
       <c r="F25">
-        <v>21.089815000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>22.163053600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2.4</v>
       </c>
       <c r="B26">
-        <v>38.11636</v>
+        <v>19.930524999999999</v>
       </c>
       <c r="C26">
-        <v>63.694912000000002</v>
+        <v>47.782127000000003</v>
       </c>
       <c r="D26">
-        <v>26.797604</v>
+        <v>24.642810000000001</v>
       </c>
       <c r="E26">
-        <v>37.414783</v>
+        <v>30.852224</v>
       </c>
       <c r="F26">
-        <v>19.521056999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>24.641537199999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2.5</v>
       </c>
       <c r="B27">
-        <v>39.455044000000001</v>
+        <v>29.362487999999999</v>
       </c>
       <c r="C27">
-        <v>57.924660000000003</v>
+        <v>48.493023000000001</v>
       </c>
       <c r="D27">
-        <v>37.086224000000001</v>
+        <v>25.497131</v>
       </c>
       <c r="E27">
-        <v>44.098705000000002</v>
+        <v>27.411480000000001</v>
       </c>
       <c r="F27">
-        <v>30.649307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>26.152824400000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2.6</v>
       </c>
       <c r="B28">
-        <v>39.186492999999999</v>
+        <v>26.475172000000001</v>
       </c>
       <c r="C28">
-        <v>46.532429999999998</v>
+        <v>46.618369999999999</v>
       </c>
       <c r="D28">
-        <v>35.082026999999997</v>
+        <v>24.672276</v>
       </c>
       <c r="E28">
-        <v>42.193767999999999</v>
+        <v>27.411480000000001</v>
       </c>
       <c r="F28">
-        <v>30.397015</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>25.035459599999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2.7</v>
       </c>
       <c r="B29">
-        <v>42.348472999999998</v>
+        <v>24.146460000000001</v>
       </c>
       <c r="C29">
-        <v>40.706364000000001</v>
+        <v>45.087451999999999</v>
       </c>
       <c r="D29">
-        <v>28.276900999999999</v>
+        <v>24.672276</v>
       </c>
       <c r="E29">
-        <v>50.480829999999997</v>
+        <v>27.432447</v>
       </c>
       <c r="F29">
-        <v>31.08417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>24.267727000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2.8</v>
       </c>
       <c r="B30">
-        <v>37.617626000000001</v>
+        <v>24.368777999999999</v>
       </c>
       <c r="C30">
-        <v>35.838054999999997</v>
+        <v>44.639355000000002</v>
       </c>
       <c r="D30">
-        <v>38.54522</v>
+        <v>23.938662000000001</v>
       </c>
       <c r="E30">
-        <v>36.473323999999998</v>
+        <v>25.790915999999999</v>
       </c>
       <c r="F30">
-        <v>38.469543000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>23.747542200000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2.9</v>
       </c>
       <c r="B31">
-        <v>17.986122000000002</v>
+        <v>38.027348000000003</v>
       </c>
       <c r="C31">
-        <v>32.733845000000002</v>
+        <v>41.447018</v>
       </c>
       <c r="D31">
-        <v>49.617959999999997</v>
+        <v>23.312139999999999</v>
       </c>
       <c r="E31">
-        <v>45.372177000000001</v>
+        <v>25.15137</v>
       </c>
       <c r="F31">
-        <v>31.46096</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>25.5875752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>10.558059999999999</v>
+        <v>57.885269999999998</v>
       </c>
       <c r="C32">
-        <v>31.082294000000001</v>
+        <v>41.447018</v>
       </c>
       <c r="D32">
-        <v>43.644199999999998</v>
+        <v>24.144338999999999</v>
       </c>
       <c r="E32">
-        <v>40.771470000000001</v>
+        <v>27.593800999999999</v>
       </c>
       <c r="F32">
-        <v>29.581018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>30.214085599999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>3.1</v>
       </c>
       <c r="B33">
-        <v>24.691025</v>
+        <v>49.28237</v>
       </c>
       <c r="C33">
-        <v>27.309933000000001</v>
+        <v>41.883648000000001</v>
       </c>
       <c r="D33">
-        <v>40.208889999999997</v>
+        <v>27.845752999999998</v>
       </c>
       <c r="E33">
-        <v>64.380319999999998</v>
+        <v>27.593800999999999</v>
       </c>
       <c r="F33">
-        <v>27.181868000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>29.321114399999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>3.2</v>
       </c>
       <c r="B34">
-        <v>74.026790000000005</v>
+        <v>41.553530000000002</v>
       </c>
       <c r="C34">
-        <v>22.041180000000001</v>
+        <v>36.675579999999997</v>
       </c>
       <c r="D34">
-        <v>56.558630000000001</v>
+        <v>37.882122000000003</v>
       </c>
       <c r="E34">
-        <v>57.750317000000003</v>
+        <v>35.237175000000001</v>
       </c>
       <c r="F34">
-        <v>40.932816000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>30.269681400000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>3.3</v>
       </c>
       <c r="B35">
-        <v>55.348197999999996</v>
+        <v>93.154229999999998</v>
       </c>
       <c r="C35">
-        <v>18.9679</v>
+        <v>44.399185000000003</v>
       </c>
       <c r="D35">
-        <v>32.950645000000002</v>
+        <v>42.966118000000002</v>
       </c>
       <c r="E35">
-        <v>45.889023000000002</v>
+        <v>33.91272</v>
       </c>
       <c r="F35">
-        <v>32.432853999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>42.886450600000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>3.4</v>
       </c>
       <c r="B36">
-        <v>21.360455000000002</v>
+        <v>43.414020000000001</v>
       </c>
       <c r="C36">
-        <v>16.833103000000001</v>
+        <v>54.932630000000003</v>
       </c>
       <c r="D36">
-        <v>26.991558000000001</v>
+        <v>41.367809999999999</v>
       </c>
       <c r="E36">
-        <v>39.9146</v>
+        <v>32.323729999999998</v>
       </c>
       <c r="F36">
-        <v>26.134036999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>34.407637999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>3.5</v>
       </c>
       <c r="B37">
-        <v>35.345115999999997</v>
+        <v>36.222892999999999</v>
       </c>
       <c r="C37">
-        <v>16.191448000000001</v>
+        <v>41.496020000000001</v>
       </c>
       <c r="D37">
-        <v>25.176770000000001</v>
+        <v>46.200831999999998</v>
       </c>
       <c r="E37">
-        <v>34.792279999999998</v>
+        <v>41.865546999999999</v>
       </c>
       <c r="F37">
-        <v>24.977335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>33.157058399999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>3.6</v>
       </c>
       <c r="B38">
-        <v>31.433745999999999</v>
+        <v>53.413696000000002</v>
       </c>
       <c r="C38">
-        <v>43.664900000000003</v>
+        <v>44.266967999999999</v>
       </c>
       <c r="D38">
-        <v>40.979280000000003</v>
+        <v>52.287678</v>
       </c>
       <c r="E38">
-        <v>41.684159999999999</v>
+        <v>48.580480000000001</v>
       </c>
       <c r="F38">
-        <v>33.099544999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>39.709764399999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>3.7</v>
       </c>
       <c r="B39">
-        <v>32.576411999999998</v>
+        <v>69.751559999999998</v>
       </c>
       <c r="C39">
-        <v>31.692345</v>
+        <v>44.024303000000003</v>
       </c>
       <c r="D39">
-        <v>41.600104999999999</v>
+        <v>55.311095999999999</v>
       </c>
       <c r="E39">
-        <v>38.059672999999997</v>
+        <v>41.722557000000002</v>
       </c>
       <c r="F39">
-        <v>20.798850999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>42.161903199999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>3.8</v>
       </c>
       <c r="B40">
-        <v>25.604800000000001</v>
+        <v>94.858329999999995</v>
       </c>
       <c r="C40">
-        <v>22.761517999999999</v>
+        <v>42.123089999999998</v>
       </c>
       <c r="D40">
-        <v>30.434470000000001</v>
+        <v>65.122185000000002</v>
       </c>
       <c r="E40">
-        <v>32.227061999999997</v>
+        <v>53.917755</v>
       </c>
       <c r="F40">
-        <v>19.258461</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>51.204271999999989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3.9</v>
       </c>
       <c r="B41">
-        <v>32.283454999999996</v>
+        <v>64.942310000000006</v>
       </c>
       <c r="C41">
-        <v>15.374805</v>
+        <v>42.524456000000001</v>
       </c>
       <c r="D41">
-        <v>23.813139</v>
+        <v>55.135489999999997</v>
       </c>
       <c r="E41">
-        <v>21.565552</v>
+        <v>48.021107000000001</v>
       </c>
       <c r="F41">
-        <v>16.440805000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>42.124672600000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42">
-        <v>23.544588000000001</v>
+        <v>48.866500000000002</v>
       </c>
       <c r="C42">
-        <v>19.899975000000001</v>
+        <v>44.777904999999997</v>
       </c>
       <c r="D42">
-        <v>18.151838000000001</v>
+        <v>48.577537999999997</v>
       </c>
       <c r="E42">
-        <v>19.902909999999999</v>
+        <v>46.115569999999998</v>
       </c>
       <c r="F42">
-        <v>19.642786000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>37.667502599999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
       <c r="B43">
-        <v>33.026496999999999</v>
+        <v>51.806130000000003</v>
       </c>
       <c r="C43">
-        <v>17.919865000000001</v>
+        <v>42.889007999999997</v>
       </c>
       <c r="D43">
-        <v>18.418807999999999</v>
+        <v>45.803725999999997</v>
       </c>
       <c r="E43">
-        <v>20.261624999999999</v>
+        <v>42.969302999999996</v>
       </c>
       <c r="F43">
-        <v>16.107754</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>36.693633399999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>4.2</v>
       </c>
       <c r="B44">
-        <v>23.651613000000001</v>
+        <v>40.457239999999999</v>
       </c>
       <c r="C44">
-        <v>22.016919999999999</v>
+        <v>58.454920000000001</v>
       </c>
       <c r="D44">
-        <v>30.410477</v>
+        <v>43.763539999999999</v>
       </c>
       <c r="E44">
-        <v>19.498545</v>
+        <v>42.861732000000003</v>
       </c>
       <c r="F44">
-        <v>20.164750000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>37.107486400000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>4.3</v>
       </c>
       <c r="B45">
-        <v>27.26558</v>
+        <v>50.830123999999998</v>
       </c>
       <c r="C45">
-        <v>38.13673</v>
+        <v>51.156405999999997</v>
       </c>
       <c r="D45">
-        <v>50.990414000000001</v>
+        <v>54.479100000000003</v>
       </c>
       <c r="E45">
-        <v>32.94659</v>
+        <v>34.610897000000001</v>
       </c>
       <c r="F45">
-        <v>18.044397</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>38.215305399999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
       <c r="B46">
-        <v>39.426406999999998</v>
+        <v>62.939025999999998</v>
       </c>
       <c r="C46">
-        <v>31.757079999999998</v>
+        <v>51.948590000000003</v>
       </c>
       <c r="D46">
-        <v>33.967489999999998</v>
+        <v>91.315849999999998</v>
       </c>
       <c r="E46">
-        <v>23.474585000000001</v>
+        <v>30.527837999999999</v>
       </c>
       <c r="F46">
-        <v>17.577567999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>47.346260799999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>4.5</v>
       </c>
       <c r="B47">
-        <v>20.153597000000001</v>
+        <v>70.402460000000005</v>
       </c>
       <c r="C47">
-        <v>18.913485000000001</v>
+        <v>24.506247999999999</v>
       </c>
       <c r="D47">
-        <v>28.323837000000001</v>
+        <v>68.254040000000003</v>
       </c>
       <c r="E47">
-        <v>17.025856000000001</v>
+        <v>35.541896999999999</v>
       </c>
       <c r="F47">
-        <v>13.074192999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>39.740929000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
       <c r="B48">
-        <v>49.966990000000003</v>
+        <v>80.777749999999997</v>
       </c>
       <c r="C48">
-        <v>15.413741999999999</v>
+        <v>23.680935000000002</v>
       </c>
       <c r="D48">
-        <v>21.542770000000001</v>
+        <v>65.14134</v>
       </c>
       <c r="E48">
-        <v>38.743988000000002</v>
+        <v>43.204062999999998</v>
       </c>
       <c r="F48">
-        <v>11.920235999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>42.5608176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>4.7</v>
       </c>
       <c r="B49">
-        <v>18.783874999999998</v>
+        <v>44.312240000000003</v>
       </c>
       <c r="C49">
-        <v>15.960087</v>
+        <v>42.205756999999998</v>
       </c>
       <c r="D49">
-        <v>19.831568000000001</v>
+        <v>63.107880000000002</v>
       </c>
       <c r="E49">
-        <v>36.051932999999998</v>
+        <v>48.377693000000001</v>
       </c>
       <c r="F49">
-        <v>20.068014000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>39.600713999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>4.8</v>
       </c>
       <c r="B50">
-        <v>40.316048000000002</v>
+        <v>21.618016999999998</v>
       </c>
       <c r="C50">
-        <v>22.426780000000001</v>
+        <v>45.592213000000001</v>
       </c>
       <c r="D50">
-        <v>25.375340999999999</v>
+        <v>70.55462</v>
       </c>
       <c r="E50">
-        <v>31.618276999999999</v>
+        <v>47.513325000000002</v>
       </c>
       <c r="F50">
-        <v>20.284084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>37.055635000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
       <c r="B51">
-        <v>6.5558776999999999</v>
+        <v>25.764130000000002</v>
       </c>
       <c r="C51">
-        <v>21.877668</v>
+        <v>63.162604999999999</v>
       </c>
       <c r="D51">
-        <v>22.611806999999999</v>
+        <v>67.326890000000006</v>
       </c>
       <c r="E51">
-        <v>30.537362999999999</v>
+        <v>44.263269999999999</v>
       </c>
       <c r="F51">
-        <v>21.967821000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>40.103379000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>5</v>
       </c>
       <c r="B52">
-        <v>21.142809</v>
+        <v>22.247019999999999</v>
       </c>
       <c r="C52">
-        <v>18.300115999999999</v>
+        <v>63.162604999999999</v>
       </c>
       <c r="D52">
-        <v>18.303963</v>
+        <v>76.498769999999993</v>
       </c>
       <c r="E52">
-        <v>22.319500000000001</v>
+        <v>40.387599999999999</v>
       </c>
       <c r="F52">
-        <v>16.81916</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>40.459198999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
       <c r="B53">
-        <v>55.806800000000003</v>
+        <v>14.369049</v>
       </c>
       <c r="C53">
-        <v>17.386600000000001</v>
+        <v>88.404210000000006</v>
       </c>
       <c r="D53">
-        <v>14.519247999999999</v>
+        <v>62.029760000000003</v>
       </c>
       <c r="E53">
-        <v>16.83154</v>
+        <v>44.42277</v>
       </c>
       <c r="F53">
-        <v>20.710861000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>41.845157800000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>5.2</v>
       </c>
       <c r="B54">
-        <v>17.916042000000001</v>
+        <v>12.410545000000001</v>
       </c>
       <c r="C54">
-        <v>20.716715000000001</v>
+        <v>73.927970000000002</v>
       </c>
       <c r="D54">
-        <v>11.787012000000001</v>
+        <v>50.707417</v>
       </c>
       <c r="E54">
-        <v>17.962886999999998</v>
+        <v>43.939472000000002</v>
       </c>
       <c r="F54">
-        <v>21.109528000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>36.197080799999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>5.3</v>
       </c>
       <c r="B55">
-        <v>22.211351000000001</v>
+        <v>18.738432</v>
       </c>
       <c r="C55">
-        <v>18.358809000000001</v>
+        <v>61.153385</v>
       </c>
       <c r="D55">
-        <v>13.702780000000001</v>
+        <v>38.553783000000003</v>
       </c>
       <c r="E55">
-        <v>14.306875</v>
+        <v>36.482235000000003</v>
       </c>
       <c r="F55">
-        <v>21.109528000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>30.985567000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>5.4</v>
       </c>
       <c r="B56">
-        <v>6.6081494999999997</v>
+        <v>16.417570000000001</v>
       </c>
       <c r="C56">
-        <v>13.487456</v>
+        <v>46.555594999999997</v>
       </c>
       <c r="D56">
-        <v>8.712002</v>
+        <v>37.494072000000003</v>
       </c>
       <c r="E56">
-        <v>20.233506999999999</v>
+        <v>29.595124999999999</v>
       </c>
       <c r="F56">
-        <v>14.319549</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>26.0124724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>5.5</v>
       </c>
       <c r="B57">
-        <v>9.0230250000000005</v>
+        <v>25.592634</v>
       </c>
       <c r="C57">
-        <v>25.316552999999999</v>
+        <v>38.654667000000003</v>
       </c>
       <c r="D57">
-        <v>9.5471620000000001</v>
+        <v>43.413105000000002</v>
       </c>
       <c r="E57">
-        <v>20.587703999999999</v>
+        <v>30.45326</v>
       </c>
       <c r="F57">
-        <v>21.124116999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>27.622733200000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>5.6</v>
       </c>
       <c r="B58">
-        <v>12.762562000000001</v>
+        <v>27.5624</v>
       </c>
       <c r="C58">
-        <v>18.046620000000001</v>
+        <v>34.139664000000003</v>
       </c>
       <c r="D58">
-        <v>8.4296030000000002</v>
+        <v>40.160328</v>
       </c>
       <c r="E58">
-        <v>17.463290000000001</v>
+        <v>38.0306</v>
       </c>
       <c r="F58">
-        <v>21.08259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>27.978598399999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>5.7</v>
       </c>
       <c r="B59">
-        <v>24.933163</v>
+        <v>18.829104999999998</v>
       </c>
       <c r="C59">
-        <v>15.642789</v>
+        <v>27.538097</v>
       </c>
       <c r="D59">
-        <v>20.329668000000002</v>
+        <v>32.111263000000001</v>
       </c>
       <c r="E59">
-        <v>24.963352</v>
+        <v>33.572110000000002</v>
       </c>
       <c r="F59">
-        <v>25.925495000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>22.410115000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>5.8</v>
       </c>
       <c r="B60">
-        <v>91.938193999999996</v>
+        <v>42.874504000000002</v>
       </c>
       <c r="C60">
-        <v>11.5116</v>
+        <v>42.838104000000001</v>
       </c>
       <c r="D60">
-        <v>18.072711999999999</v>
+        <v>31.891829000000001</v>
       </c>
       <c r="E60">
-        <v>21.637744999999999</v>
+        <v>50.299294000000003</v>
       </c>
       <c r="F60">
-        <v>23.934925</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>33.5807462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>5.9</v>
       </c>
       <c r="B61">
-        <v>103.62739000000001</v>
+        <v>16.530193000000001</v>
       </c>
       <c r="C61">
-        <v>24.814689999999999</v>
+        <v>40.001390000000001</v>
       </c>
       <c r="D61">
-        <v>13.746461999999999</v>
+        <v>25.200485</v>
       </c>
       <c r="E61">
-        <v>19.077036</v>
+        <v>55.386200000000002</v>
       </c>
       <c r="F61">
-        <v>54.203055999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>27.423653600000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>6</v>
       </c>
       <c r="B62">
-        <v>10.064588000000001</v>
+        <v>20.884722</v>
       </c>
       <c r="C62">
-        <v>22.785260000000001</v>
+        <v>34.911816000000002</v>
       </c>
       <c r="D62">
-        <v>13.259138</v>
+        <v>33.164110000000001</v>
       </c>
       <c r="E62">
-        <v>20.121275000000001</v>
+        <v>39.844172999999998</v>
       </c>
       <c r="F62">
-        <v>44.890709999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>25.7609642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>6.1</v>
       </c>
       <c r="B63">
-        <v>72.594795000000005</v>
+        <v>34.26587</v>
       </c>
       <c r="C63">
-        <v>16.843004000000001</v>
+        <v>25.351227000000002</v>
       </c>
       <c r="D63">
-        <v>18.157786999999999</v>
+        <v>26.930482999999999</v>
       </c>
       <c r="E63">
-        <v>16.897369999999999</v>
+        <v>35.965767</v>
       </c>
       <c r="F63">
-        <v>36.044792000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>24.502669399999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>6.2</v>
       </c>
       <c r="B64">
-        <v>10.502927</v>
+        <v>8.4954479999999997</v>
       </c>
       <c r="C64">
-        <v>15.0112705</v>
+        <v>24.416132000000001</v>
       </c>
       <c r="D64">
-        <v>15.000151000000001</v>
+        <v>26.192260000000001</v>
       </c>
       <c r="E64">
-        <v>16.897369999999999</v>
+        <v>32.295105</v>
       </c>
       <c r="F64">
-        <v>26.084928999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>18.279789000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>6.3</v>
       </c>
       <c r="B65">
-        <v>35.415066000000003</v>
+        <v>12.307361999999999</v>
       </c>
       <c r="C65">
-        <v>39.615177000000003</v>
+        <v>24.841017000000001</v>
       </c>
       <c r="D65">
-        <v>15.000151000000001</v>
+        <v>27.256976999999999</v>
       </c>
       <c r="E65">
-        <v>22.755839999999999</v>
+        <v>29.791916000000001</v>
       </c>
       <c r="F65">
-        <v>42.657066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>18.839454400000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>6.4</v>
       </c>
       <c r="B66">
-        <v>9.2248079999999995</v>
+        <v>5.719716</v>
       </c>
       <c r="C66">
-        <v>27.33568</v>
+        <v>22.856518000000001</v>
       </c>
       <c r="D66">
-        <v>11.031039</v>
+        <v>22.134031</v>
       </c>
       <c r="E66">
-        <v>18.534617999999998</v>
+        <v>22.99812</v>
       </c>
       <c r="F66">
-        <v>28.105993000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>14.741676999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>6.5</v>
       </c>
       <c r="B67">
-        <v>7.1885896000000002</v>
+        <v>49.462414000000003</v>
       </c>
       <c r="C67">
-        <v>19.643464999999999</v>
+        <v>26.505476000000002</v>
       </c>
       <c r="D67">
-        <v>29.017600000000002</v>
+        <v>17.656153</v>
       </c>
       <c r="E67">
-        <v>17.254125999999999</v>
+        <v>29.027152999999998</v>
       </c>
       <c r="F67">
-        <v>24.853570000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G99" si="1">SUM(B67:F67)/5</f>
+        <v>24.530239200000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>6.6</v>
       </c>
       <c r="B68">
-        <v>21.42061</v>
+        <v>29.379396</v>
       </c>
       <c r="C68">
-        <v>22.358744000000002</v>
+        <v>21.610856999999999</v>
       </c>
       <c r="D68">
-        <v>25.468605</v>
+        <v>13.461446</v>
       </c>
       <c r="E68">
-        <v>14.260655</v>
+        <v>21.217656999999999</v>
       </c>
       <c r="F68">
-        <v>18.656921000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>17.133871199999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>6.7</v>
       </c>
       <c r="B69">
-        <v>30.441421999999999</v>
+        <v>12.930237</v>
       </c>
       <c r="C69">
-        <v>25.035443999999998</v>
+        <v>17.393343000000002</v>
       </c>
       <c r="D69">
-        <v>28.513815000000001</v>
+        <v>11.158472</v>
       </c>
       <c r="E69">
-        <v>13.056691000000001</v>
+        <v>25.227922</v>
       </c>
       <c r="F69">
-        <v>25.630907000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>13.341994799999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>6.8</v>
       </c>
       <c r="B70">
-        <v>32.566634999999998</v>
+        <v>108.1867</v>
       </c>
       <c r="C70">
-        <v>18.263704000000001</v>
+        <v>39.499332000000003</v>
       </c>
       <c r="D70">
-        <v>18.804887999999998</v>
+        <v>12.978648</v>
       </c>
       <c r="E70">
-        <v>9.6732530000000008</v>
+        <v>21.541214</v>
       </c>
       <c r="F70">
-        <v>18.414055000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>36.441178800000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>6.9</v>
       </c>
       <c r="B71">
-        <v>5.5183644000000003</v>
+        <v>14.222846000000001</v>
       </c>
       <c r="C71">
-        <v>14.76458</v>
+        <v>36.085647999999999</v>
       </c>
       <c r="D71">
-        <v>17.809097000000001</v>
+        <v>11.408163999999999</v>
       </c>
       <c r="E71">
-        <v>16.760918</v>
+        <v>18.373166999999999</v>
       </c>
       <c r="F71">
-        <v>15.069247000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>16.017964999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>7</v>
       </c>
       <c r="B72">
-        <v>6.2279673000000004</v>
+        <v>4.6857850000000001</v>
       </c>
       <c r="C72">
-        <v>13.086656</v>
+        <v>33.057296999999998</v>
       </c>
       <c r="D72">
-        <v>15.20247</v>
+        <v>19.030007999999999</v>
       </c>
       <c r="E72">
-        <v>19.329543999999999</v>
+        <v>16.463318000000001</v>
       </c>
       <c r="F72">
-        <v>20.197872</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>14.647281599999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>7.1</v>
       </c>
       <c r="B73">
-        <v>9.2152030000000007</v>
+        <v>27.830956</v>
       </c>
       <c r="C73">
-        <v>27.802301</v>
+        <v>26.88317</v>
       </c>
       <c r="D73">
-        <v>13.554716000000001</v>
+        <v>21.690622000000001</v>
       </c>
       <c r="E73">
-        <v>15.003710999999999</v>
+        <v>11.838442000000001</v>
       </c>
       <c r="F73">
-        <v>18.571079999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>17.648637999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>7.2</v>
       </c>
       <c r="B74">
-        <v>25.850939</v>
+        <v>8.7711520000000007</v>
       </c>
       <c r="C74">
-        <v>21.896315000000001</v>
+        <v>16.377924</v>
       </c>
       <c r="D74">
-        <v>16.885002</v>
+        <v>14.287551000000001</v>
       </c>
       <c r="E74">
-        <v>17.436828999999999</v>
+        <v>21.097995999999998</v>
       </c>
       <c r="F74">
-        <v>23.130628999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>12.106924599999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>7.3</v>
       </c>
       <c r="B75">
-        <v>19.910382999999999</v>
+        <v>16.684488000000002</v>
       </c>
       <c r="C75">
-        <v>11.434338</v>
+        <v>30.295088</v>
       </c>
       <c r="D75">
-        <v>40.292299999999997</v>
+        <v>18.459745000000002</v>
       </c>
       <c r="E75">
-        <v>15.470402</v>
+        <v>22.552638999999999</v>
       </c>
       <c r="F75">
-        <v>31.688385</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>17.598392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>7.4</v>
       </c>
       <c r="B76">
-        <v>28.603489</v>
+        <v>70.934740000000005</v>
       </c>
       <c r="C76">
-        <v>11.434338</v>
+        <v>31.383058999999999</v>
       </c>
       <c r="D76">
-        <v>40.292299999999997</v>
+        <v>23.415714000000001</v>
       </c>
       <c r="E76">
-        <v>13.1393585</v>
+        <v>24.736395000000002</v>
       </c>
       <c r="F76">
-        <v>31.688385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>30.093981600000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>7.5</v>
       </c>
       <c r="B77">
-        <v>15.202735000000001</v>
+        <v>24.209413999999999</v>
       </c>
       <c r="C77">
-        <v>13.024388</v>
+        <v>27.344328000000001</v>
       </c>
       <c r="D77">
-        <v>25.151223999999999</v>
+        <v>17.624207999999999</v>
       </c>
       <c r="E77">
-        <v>20.20337</v>
+        <v>22.859594000000001</v>
       </c>
       <c r="F77">
-        <v>26.791160000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>18.407508799999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>7.6</v>
       </c>
       <c r="B78">
-        <v>76.198139999999995</v>
+        <v>19.480732</v>
       </c>
       <c r="C78">
-        <v>22.178660000000001</v>
+        <v>24.427002000000002</v>
       </c>
       <c r="D78">
-        <v>25.573198000000001</v>
+        <v>24.039639000000001</v>
       </c>
       <c r="E78">
-        <v>14.933434500000001</v>
+        <v>18.262471999999999</v>
       </c>
       <c r="F78">
-        <v>15.490776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>17.241969000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>7.7</v>
       </c>
       <c r="B79">
-        <v>7.4396734000000002</v>
+        <v>78.262</v>
       </c>
       <c r="C79">
-        <v>16.860085000000002</v>
+        <v>16.577006999999998</v>
       </c>
       <c r="D79">
-        <v>17.275417000000001</v>
+        <v>27.609176999999999</v>
       </c>
       <c r="E79">
-        <v>14.933434500000001</v>
+        <v>14.0354595</v>
       </c>
       <c r="F79">
-        <v>13.478524999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>27.296728699999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>7.8</v>
       </c>
       <c r="B80">
-        <v>6.4607650000000003</v>
+        <v>8.7239039999999992</v>
       </c>
       <c r="C80">
-        <v>14.883288</v>
+        <v>14.332162</v>
       </c>
       <c r="D80">
-        <v>15.883563000000001</v>
+        <v>23.455929000000001</v>
       </c>
       <c r="E80">
-        <v>14.715802999999999</v>
+        <v>19.087575999999999</v>
       </c>
       <c r="F80">
-        <v>17.677029000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>13.1199142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>7.9</v>
       </c>
       <c r="B81">
-        <v>68.645934999999994</v>
+        <v>8.9924359999999997</v>
       </c>
       <c r="C81">
-        <v>13.967262</v>
+        <v>21.098427000000001</v>
       </c>
       <c r="D81">
-        <v>13.074018000000001</v>
+        <v>24.235384</v>
       </c>
       <c r="E81">
-        <v>9.7602010000000003</v>
+        <v>15.674480000000001</v>
       </c>
       <c r="F81">
-        <v>12.942304999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>14.000145399999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>8</v>
       </c>
       <c r="B82">
-        <v>83.161640000000006</v>
+        <v>29.583632999999999</v>
       </c>
       <c r="C82">
-        <v>13.250268999999999</v>
+        <v>13.921999</v>
       </c>
       <c r="D82">
-        <v>17.960751999999999</v>
+        <v>28.266356999999999</v>
       </c>
       <c r="E82">
-        <v>19.133527999999998</v>
+        <v>19.53443</v>
       </c>
       <c r="F82">
-        <v>20.225487000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>18.261283799999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>8.1</v>
       </c>
       <c r="B83">
-        <v>4.9563211999999996</v>
+        <v>34.524002000000003</v>
       </c>
       <c r="C83">
-        <v>21.152743999999998</v>
+        <v>18.470161000000001</v>
       </c>
       <c r="D83">
-        <v>15.874475500000001</v>
+        <v>38.869038000000003</v>
       </c>
       <c r="E83">
-        <v>13.9893675</v>
+        <v>16.652892999999999</v>
       </c>
       <c r="F83">
-        <v>22.880120999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>21.703218800000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
       <c r="B84">
-        <v>18.431750000000001</v>
+        <v>9.4075810000000004</v>
       </c>
       <c r="C84">
-        <v>19.329004000000001</v>
+        <v>32.583015000000003</v>
       </c>
       <c r="D84">
-        <v>18.555095999999999</v>
+        <v>32.615400000000001</v>
       </c>
       <c r="E84">
-        <v>17.639900000000001</v>
+        <v>24.986039999999999</v>
       </c>
       <c r="F84">
-        <v>21.713481999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>19.918407200000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
       <c r="B85">
-        <v>28.839303999999998</v>
+        <v>41.466785000000002</v>
       </c>
       <c r="C85">
-        <v>27.582049999999999</v>
+        <v>27.920276999999999</v>
       </c>
       <c r="D85">
-        <v>15.567209999999999</v>
+        <v>20.726483999999999</v>
       </c>
       <c r="E85">
-        <v>15.218719</v>
+        <v>22.285910000000001</v>
       </c>
       <c r="F85">
-        <v>27.418724000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>22.479891200000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>8.4</v>
       </c>
       <c r="B86">
-        <v>57.401899999999998</v>
+        <v>21.216795000000001</v>
       </c>
       <c r="C86">
-        <v>21.4269</v>
+        <v>23.562653000000001</v>
       </c>
       <c r="D86">
-        <v>12.068899999999999</v>
+        <v>13.477971999999999</v>
       </c>
       <c r="E86">
-        <v>9.7949009999999994</v>
+        <v>12.640097000000001</v>
       </c>
       <c r="F86">
-        <v>22.262304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>14.179503400000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>8.5</v>
       </c>
       <c r="B87">
-        <v>15.952059</v>
+        <v>69.153983999999994</v>
       </c>
       <c r="C87">
-        <v>20.533463999999999</v>
+        <v>41.529110000000003</v>
       </c>
       <c r="D87">
-        <v>11.048572999999999</v>
+        <v>23.914819999999999</v>
       </c>
       <c r="E87">
-        <v>14.794290999999999</v>
+        <v>17.637744999999999</v>
       </c>
       <c r="F87">
-        <v>16.618994000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>30.447131800000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>8.6</v>
       </c>
       <c r="B88">
-        <v>11.926033</v>
+        <v>20.187746000000001</v>
       </c>
       <c r="C88">
-        <v>22.629256999999999</v>
+        <v>36.505927999999997</v>
       </c>
       <c r="D88">
-        <v>17.600739000000001</v>
+        <v>19.032606000000001</v>
       </c>
       <c r="E88">
-        <v>11.278999000000001</v>
+        <v>23.379300000000001</v>
       </c>
       <c r="F88">
-        <v>11.959955000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>19.821116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
       <c r="B89">
-        <v>22.475092</v>
+        <v>32.862144000000001</v>
       </c>
       <c r="C89">
-        <v>27.633628999999999</v>
+        <v>36.505927999999997</v>
       </c>
       <c r="D89">
-        <v>21.464155000000002</v>
+        <v>19.032606000000001</v>
       </c>
       <c r="E89">
-        <v>16.16187</v>
+        <v>22.410336000000001</v>
       </c>
       <c r="F89">
-        <v>13.477152999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>22.162202799999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
       <c r="B90">
-        <v>62.297477999999998</v>
+        <v>20.219166000000001</v>
       </c>
       <c r="C90">
-        <v>28.38185</v>
+        <v>25.296683999999999</v>
       </c>
       <c r="D90">
-        <v>24.979690000000002</v>
+        <v>26.416160000000001</v>
       </c>
       <c r="E90">
-        <v>11.055626</v>
+        <v>25.607212000000001</v>
       </c>
       <c r="F90">
-        <v>13.477152999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>19.507844400000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>8.9</v>
       </c>
       <c r="B91">
-        <v>6.5981709999999998</v>
+        <v>72.001390000000001</v>
       </c>
       <c r="C91">
-        <v>20.219235999999999</v>
+        <v>23.220257</v>
       </c>
       <c r="D91">
-        <v>25.861969999999999</v>
+        <v>25.770053999999998</v>
       </c>
       <c r="E91">
-        <v>15.799255</v>
+        <v>20.950047999999999</v>
       </c>
       <c r="F91">
-        <v>11.323034</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>28.388349800000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>9</v>
       </c>
       <c r="B92">
-        <v>25.310594999999999</v>
+        <v>21.570854000000001</v>
       </c>
       <c r="C92">
-        <v>16.392842999999999</v>
+        <v>20.978276999999999</v>
       </c>
       <c r="D92">
-        <v>27.997772000000001</v>
+        <v>15.356928999999999</v>
       </c>
       <c r="E92">
-        <v>14.121261000000001</v>
+        <v>21.243463999999999</v>
       </c>
       <c r="F92">
-        <v>24.093776999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>15.8299048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>9.1</v>
       </c>
       <c r="B93">
-        <v>39.644280000000002</v>
+        <v>33.758136999999998</v>
       </c>
       <c r="C93">
-        <v>17.068314000000001</v>
+        <v>26.249897000000001</v>
       </c>
       <c r="D93">
-        <v>35.577933999999999</v>
+        <v>18.789936000000001</v>
       </c>
       <c r="E93">
-        <v>30.533072000000001</v>
+        <v>30.402794</v>
       </c>
       <c r="F93">
-        <v>19.492809999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>21.840152799999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
       <c r="B94">
-        <v>36.147156000000003</v>
+        <v>32.250445999999997</v>
       </c>
       <c r="C94">
-        <v>12.96494</v>
+        <v>21.259170000000001</v>
       </c>
       <c r="D94">
-        <v>20.922794</v>
+        <v>13.501987</v>
       </c>
       <c r="E94">
-        <v>16.466100000000001</v>
+        <v>31.726357</v>
       </c>
       <c r="F94">
-        <v>17.491174999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>19.747591999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
       <c r="B95">
-        <v>33.786389999999997</v>
+        <v>24.680842999999999</v>
       </c>
       <c r="C95">
-        <v>13.190859</v>
+        <v>17.307205</v>
       </c>
       <c r="D95">
-        <v>29.856117000000001</v>
+        <v>40.997374999999998</v>
       </c>
       <c r="E95">
-        <v>13.178167999999999</v>
+        <v>19.519100000000002</v>
       </c>
       <c r="F95">
-        <v>16.128284000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>20.500904600000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>9.4</v>
       </c>
       <c r="B96">
-        <v>16.775213000000001</v>
+        <v>7.2171307000000002</v>
       </c>
       <c r="C96">
-        <v>15.249338</v>
+        <v>16.691845000000001</v>
       </c>
       <c r="D96">
-        <v>22.057773999999998</v>
+        <v>39.147506999999997</v>
       </c>
       <c r="E96">
-        <v>15.010813000000001</v>
+        <v>19.519100000000002</v>
       </c>
       <c r="F96">
-        <v>13.234089000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>16.515116540000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>9.5</v>
       </c>
       <c r="B97">
-        <v>18.919754000000001</v>
+        <v>23.924726</v>
       </c>
       <c r="C97">
-        <v>15.276774</v>
+        <v>41.29195</v>
       </c>
       <c r="D97">
-        <v>17.185822999999999</v>
+        <v>25.187221999999998</v>
       </c>
       <c r="E97">
-        <v>13.839758</v>
+        <v>20.576418</v>
       </c>
       <c r="F97">
-        <v>13.234089000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>22.196063200000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>9.6</v>
       </c>
       <c r="B98">
-        <v>13.611704</v>
+        <v>63.392204</v>
       </c>
       <c r="C98">
-        <v>10.868209</v>
+        <v>45.864620000000002</v>
       </c>
       <c r="D98">
-        <v>11.5145035</v>
+        <v>19.538260000000001</v>
       </c>
       <c r="E98">
-        <v>11.979050000000001</v>
+        <v>17.44904</v>
       </c>
       <c r="F98">
-        <v>31.195688000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>29.248824800000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
       <c r="B99">
-        <v>29.171944</v>
+        <v>89.89743</v>
       </c>
       <c r="C99">
-        <v>13.690179000000001</v>
+        <v>35.906376000000002</v>
       </c>
       <c r="D99">
-        <v>10.632004</v>
+        <v>19.538260000000001</v>
       </c>
       <c r="E99">
-        <v>8.7476730000000007</v>
+        <v>16.008800000000001</v>
       </c>
       <c r="F99">
-        <v>25.171713</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>32.270173200000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
@@ -6959,7 +9713,7 @@
         <v>18.248192</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>9.9</v>
       </c>
@@ -6967,7 +9721,7 @@
         <v>19.859161</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>10</v>
       </c>
@@ -6975,6 +9729,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/report/graphs/data.xlsx
+++ b/report/graphs/data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="factor_study" sheetId="1" r:id="rId1"/>
     <sheet name="no_balancing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -108,8 +108,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -133,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -143,6 +145,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -152,6 +155,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -194,7 +198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2785,11 +2788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579032392"/>
-        <c:axId val="585967880"/>
+        <c:axId val="574021064"/>
+        <c:axId val="558794872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="579032392"/>
+        <c:axId val="574021064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2802,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585967880"/>
+        <c:crossAx val="558794872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2807,7 +2810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="585967880"/>
+        <c:axId val="558794872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2815,21 +2818,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="579032392"/>
+        <c:crossAx val="574021064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5106,11 +5107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583918312"/>
-        <c:axId val="583636040"/>
+        <c:axId val="583179272"/>
+        <c:axId val="583777864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583918312"/>
+        <c:axId val="583179272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,7 +5121,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="583636040"/>
+        <c:crossAx val="583777864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5128,7 +5129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583636040"/>
+        <c:axId val="583777864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5143,7 +5144,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="583918312"/>
+        <c:crossAx val="583179272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7301,7 +7302,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7316,7 +7316,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B99"/>
+      <selection activeCell="G2" sqref="G2:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
